--- a/error_rankings/ccner/pure_noise_full_prompts_small_models_error_counts.xlsx
+++ b/error_rankings/ccner/pure_noise_full_prompts_small_models_error_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,11 +510,15 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>carbon</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CLIMATE-PROPERTY</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -634,12 +638,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>atmospheric chemistry</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CLIMATE-PROPERTY</t>
+          <t>not a predefined category</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -652,12 +656,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>atmospheric chemistry</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>not a predefined category</t>
+          <t>CLIMATE-ORGANISATIONS</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -814,36 +818,18 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>smallholder farmers</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CLIMATE-ORGANISATIONS</t>
+          <t>CLIMATE-ORGSANISMS</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>smallholder farmers</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>CLIMATE-ORGSANISMS</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>1</v>
-      </c>
-      <c r="D23" t="n">
         <v>0.08333333333333333</v>
       </c>
     </row>
